--- a/biology/Botanique/Haricot_urd/Haricot_urd.xlsx
+++ b/biology/Botanique/Haricot_urd/Haricot_urd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna mungo
-Le haricot urd, ou urd (Vigna mungo), ou haricot mungo à grain noir[1], parfois appelé soja noir[2],[3], est une plante de la famille des Fabaceae. Cette légumineuse est cultivée en Asie méridionale. Elle est largement utilisée pour préparer le dal à partir des graines décortiquées, entières ou cassées. Comme le haricot mungo, cette espèce avait été classée dans le genre Phaseolus avant d'être transférée dans le genre Vigna. Elle fut un moment considérée comme appartenant à la même espèce que le haricot mungo (Vigna radiata).
+Le haricot urd, ou urd (Vigna mungo), ou haricot mungo à grain noir, parfois appelé soja noir est une plante de la famille des Fabaceae. Cette légumineuse est cultivée en Asie méridionale. Elle est largement utilisée pour préparer le dal à partir des graines décortiquées, entières ou cassées. Comme le haricot mungo, cette espèce avait été classée dans le genre Phaseolus avant d'être transférée dans le genre Vigna. Elle fut un moment considérée comme appartenant à la même espèce que le haricot mungo (Vigna radiata).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haricot urd est originaire de l'Inde où il est cultivé depuis des temps très anciens et c'est l'une des légumineuses les plus appréciées en Inde. Il a été introduit par les immigrants indiens dans de nombreux pays tropicaux.
 C'est une plante herbacée annuelle, érigée ou rampante, densément velue. La racine principale produit un système racinaire ramifié avec des nodosités sphériques et lisses.
